--- a/ConsoleApp1/Sample/3-StatFile.xlsx
+++ b/ConsoleApp1/Sample/3-StatFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <x:si>
     <x:t>Component Index</x:t>
   </x:si>
@@ -25,19 +25,22 @@
     <x:t>Average Similarity</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">22/ , 48/ </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">23/ , 6/ , 102/ , 101/ , 104/ , 147/ , 56/ , 29/ , 201/ </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">53/ , 79/ </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">202/ , 37/ </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">159/ , 51/ </x:t>
+    <x:t>Component Count</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22, 48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37, 202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6, 23, 29, 56, 101, 102, 104, 147, 201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51, 159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53, 79</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -388,18 +391,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="17.040625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="44.250625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="33.170625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.490625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -409,60 +413,78 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>35.1</x:v>
+        <x:v>36.5</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>29.5</x:v>
+        <x:v>35.1</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>36.5</x:v>
+        <x:v>30.5</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3">
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>30.5</x:v>
+        <x:v>29.5</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -713,9 +735,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E9E036-95C8-4615-93A9-87D2CA95E028}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFAF78ED-54B2-4431-ACC5-B5134150A99B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84505B55-191F-40B9-9F7D-D7F042CA7398}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51359AAA-66CD-45BC-8148-1A05D20BABA5}"/>
 </file>